--- a/dtpu_configurations/only_integer32/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/graph_utilization.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E30BFF-EF25-4B99-B152-0C6F678CB7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E252B89-10FA-43B4-A268-E338FB32179B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizatio" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>3x3</t>
   </si>
@@ -38,27 +38,6 @@
   </si>
   <si>
     <t>10x10</t>
-  </si>
-  <si>
-    <t>12x12</t>
-  </si>
-  <si>
-    <t>14x14</t>
-  </si>
-  <si>
-    <t>16x16</t>
-  </si>
-  <si>
-    <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
-  </si>
-  <si>
-    <t>24x24</t>
   </si>
   <si>
     <t>LUT</t>
@@ -299,7 +278,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -320,27 +299,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -352,46 +310,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.479324340820313</c:v>
+                  <c:v>18.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.434211730957031</c:v>
+                  <c:v>19.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>18.12</c:v>
+                  <c:v>22.93</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>18.77</c:v>
+                  <c:v>26.15</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>19.05</c:v>
+                  <c:v>28.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0093994140625</c:v>
+                  <c:v>39.35</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>21.81</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>23.94</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>25.92</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>31.55</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>57.07</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>71.78</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>89.12</c:v>
+                  <c:v>76.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,7 +370,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -454,27 +391,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,46 +402,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.3333334922790527</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3333334922790527</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5.41</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>5.52</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>5.61</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7126436233520508</c:v>
+                  <c:v>6.82</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>6.26</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>6.61</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>7.18</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +462,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -588,27 +483,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -620,46 +494,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.11936092376709</c:v>
+                  <c:v>12.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.668232917785645</c:v>
+                  <c:v>14.27</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>12</c:v>
+                  <c:v>15.96</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>12.57</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>20.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.816729545593262</c:v>
+                  <c:v>24.24</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>15.23</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>16.95</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>22.09</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>47.99</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,7 +554,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -722,27 +575,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -754,45 +586,24 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>34.285717010498047</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.428569793701172</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.857143402099609</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>57.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -835,7 +646,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -856,27 +667,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -888,46 +678,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.7272727489471436</c:v>
+                  <c:v>12.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4545454978942871</c:v>
+                  <c:v>21.82</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9.09</c:v>
+                  <c:v>34.090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>13.64</c:v>
+                  <c:v>49.09</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>19.09</c:v>
+                  <c:v>66.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.454544067382813</c:v>
+                  <c:v>79.09</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>82.73</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>90.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,7 +738,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -990,27 +759,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1040,27 +788,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1105,7 +832,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1126,27 +853,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,10 +864,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.13</c:v>
@@ -1173,31 +879,10 @@
                   <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,7 +1323,7 @@
             <c:strRef>
               <c:f>timng!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1659,27 +1344,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1690,47 +1354,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>21.14</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>20.587009429931641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.14</c:v>
+                  <c:v>16.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.15</c:v>
+                  <c:v>14.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.809999999999999</c:v>
+                  <c:v>15.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.34</c:v>
+                  <c:v>14.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.68</c:v>
+                  <c:v>12.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.32</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,7 +1415,7 @@
             <c:strRef>
               <c:f>timng!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1793,27 +1436,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1824,8 +1446,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.2907342053949833E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
@@ -1837,34 +1459,13 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2070,7 +1671,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2330,7 +1931,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2351,27 +1952,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2389,40 +1969,19 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +2021,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2483,27 +2042,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2533,27 +2071,6 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2594,7 +2111,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2615,27 +2132,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2659,33 +2155,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2726,7 +2201,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2747,27 +2222,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2798,27 +2252,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2291,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2879,27 +2312,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2929,27 +2341,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2990,7 +2381,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3011,27 +2402,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3061,27 +2431,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3124,7 +2473,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3145,27 +2494,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3195,27 +2523,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3258,7 +2565,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3279,27 +2586,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3329,27 +2615,6 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -3392,7 +2657,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3413,27 +2678,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3463,27 +2707,6 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3526,7 +2749,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3547,27 +2770,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3585,40 +2787,19 @@
                   <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.41</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,36 +5238,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -6094,25 +5275,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>16.479324340820313</v>
+        <v>18.27</v>
       </c>
       <c r="C2" s="2">
-        <v>5.3333334922790527</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="2">
-        <v>11.11936092376709</v>
+        <v>12.72</v>
       </c>
       <c r="E2" s="2">
-        <v>34.285717010498047</v>
+        <v>57.86</v>
       </c>
       <c r="F2" s="2">
-        <v>2.7272727489471436</v>
+        <v>12.27</v>
       </c>
       <c r="G2" s="2">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6120,25 +5301,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>17.434211730957031</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>5.3333334922790527</v>
+        <v>5.34</v>
       </c>
       <c r="D3" s="2">
-        <v>11.668232917785645</v>
+        <v>14.27</v>
       </c>
       <c r="E3" s="2">
-        <v>46.428569793701172</v>
+        <v>57.86</v>
       </c>
       <c r="F3" s="2">
-        <v>5.4545454978942871</v>
+        <v>21.82</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6146,19 +5327,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.12</v>
+        <v>22.93</v>
       </c>
       <c r="C4">
-        <v>5.41</v>
+        <v>5.71</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>15.96</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
-        <v>9.09</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -6172,19 +5353,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.77</v>
+        <v>26.15</v>
       </c>
       <c r="C5">
-        <v>5.52</v>
+        <v>6.08</v>
       </c>
       <c r="D5">
-        <v>12.57</v>
+        <v>18.2</v>
       </c>
       <c r="E5">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F5">
-        <v>13.64</v>
+        <v>49.09</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -6198,19 +5379,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.05</v>
+        <v>28.79</v>
       </c>
       <c r="C6">
-        <v>5.61</v>
+        <v>6.45</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>20.58</v>
       </c>
       <c r="E6">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F6">
-        <v>19.09</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -6224,25 +5405,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>20.0093994140625</v>
+        <v>39.35</v>
       </c>
       <c r="C7" s="2">
-        <v>5.7126436233520508</v>
+        <v>6.82</v>
       </c>
       <c r="D7" s="2">
-        <v>13.816729545593262</v>
+        <v>24.24</v>
       </c>
       <c r="E7" s="2">
-        <v>57.857143402099609</v>
+        <v>57.86</v>
       </c>
       <c r="F7" s="2">
-        <v>25.454544067382813</v>
+        <v>79.09</v>
       </c>
       <c r="G7" s="2">
         <v>8</v>
       </c>
       <c r="H7" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6250,19 +5431,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.81</v>
+        <v>76.45</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>7.53</v>
       </c>
       <c r="D8">
-        <v>15.23</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>57.86</v>
       </c>
       <c r="F8">
-        <v>40.909999999999997</v>
+        <v>90.91</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -6272,186 +5453,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>23.94</v>
-      </c>
-      <c r="C9">
-        <v>6.08</v>
-      </c>
-      <c r="D9">
-        <v>16.95</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>25.92</v>
-      </c>
-      <c r="C10">
-        <v>6.26</v>
-      </c>
-      <c r="D10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>31.55</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.09</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>43.2</v>
-      </c>
-      <c r="C12">
-        <v>6.61</v>
-      </c>
-      <c r="D12">
-        <v>27.6</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>3.13</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>57.07</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.75</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>71.78</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>89.12</v>
-      </c>
-      <c r="C15">
-        <v>7.18</v>
-      </c>
-      <c r="D15">
-        <v>47.99</v>
-      </c>
-      <c r="E15">
-        <v>57.86</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>6.25</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -6471,28 +5491,28 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>21.14</v>
-      </c>
-      <c r="C2">
-        <v>0.02</v>
+      <c r="B2" s="2">
+        <v>20.587009429931641</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.2907342053949833E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6500,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.14</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="C3">
         <v>0.02</v>
@@ -6511,7 +5531,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.15</v>
+        <v>14.9</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -6522,7 +5542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.809999999999999</v>
+        <v>15.01</v>
       </c>
       <c r="C5">
         <v>0.01</v>
@@ -6533,10 +5553,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.34</v>
+        <v>14.49</v>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6544,7 +5564,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.68</v>
+        <v>12.86</v>
       </c>
       <c r="C7">
         <v>0.01</v>
@@ -6555,88 +5575,32 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.91</v>
+        <v>7.29</v>
       </c>
       <c r="C8">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10.98</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>10.53</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5.37</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3.16</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7.32</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C15">
-        <v>0.03</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6648,42 +5612,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6761,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C4">
         <v>0.01</v>
@@ -6788,7 +5752,7 @@
         <v>0.13</v>
       </c>
       <c r="K4">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6796,7 +5760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C5">
         <v>0.01</v>
@@ -6823,7 +5787,7 @@
         <v>0.13</v>
       </c>
       <c r="K5">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6831,13 +5795,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C6">
         <v>0.01</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6858,7 +5822,7 @@
         <v>0.13</v>
       </c>
       <c r="K6">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6866,13 +5830,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C7">
         <v>0.01</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6893,7 +5857,7 @@
         <v>0.13</v>
       </c>
       <c r="K7">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6901,13 +5865,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C8">
         <v>0.01</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6928,253 +5892,39 @@
         <v>0.13</v>
       </c>
       <c r="K8">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.42</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.02</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.42</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.02</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.42</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.02</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.42</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.02</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.43</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.02</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.44</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1.43</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dtpu_configurations/only_integer32/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/graph_utilization.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E252B89-10FA-43B4-A268-E338FB32179B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C05988-6195-4C10-A6E1-F88252003EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizatio" sheetId="1" r:id="rId1"/>
     <sheet name="timng" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>3x3</t>
   </si>
@@ -61,9 +71,6 @@
     <t>BUFG</t>
   </si>
   <si>
-    <t>MXU size/Utilization</t>
-  </si>
-  <si>
     <t>WNS</t>
   </si>
   <si>
@@ -90,12 +97,18 @@
   <si>
     <t>Total Power</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +124,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,10 +160,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -152,9 +173,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -183,160 +213,99 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Post</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Implementation Utilization Only Integer 8</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$B$1</c:f>
+              <c:f>utilizatio!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUT</c:v>
+                  <c:v>3x3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$B$2:$B$15</c:f>
+              <c:f>utilizatio!$B$2:$H$2</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>18.27</c:v>
+                  <c:v>0.1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>22.93</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>26.15</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>28.79</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.35</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>76.45</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000000-F659-4578-8A24-D6C45FD1CFD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -345,90 +314,87 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$C$1</c:f>
+              <c:f>utilizatio!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUTRAM</c:v>
+                  <c:v>4x4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$C$2:$C$15</c:f>
+              <c:f>utilizatio!$B$3:$H$3</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.34</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.34</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>5.71</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>6.45</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>7.53</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000001-F659-4578-8A24-D6C45FD1CFD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -437,90 +403,87 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$D$1</c:f>
+              <c:f>utilizatio!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF</c:v>
+                  <c:v>5x5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$D$2:$D$15</c:f>
+              <c:f>utilizatio!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.72</c:v>
+                  <c:v>0.2293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.27</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>15.96</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>20.58</c:v>
+                  <c:v>5.7099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34089999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.24</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>34</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000002-F659-4578-8A24-D6C45FD1CFD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -529,90 +492,87 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$E$1</c:f>
+              <c:f>utilizatio!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BRAM</c:v>
+                  <c:v>6x6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$E$2:$E$15</c:f>
+              <c:f>utilizatio!$B$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57.86</c:v>
+                  <c:v>0.26150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>57.86</c:v>
+                  <c:v>6.08E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>57.86</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000003-F659-4578-8A24-D6C45FD1CFD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -621,90 +581,87 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$F$1</c:f>
+              <c:f>utilizatio!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DSP</c:v>
+                  <c:v>7x7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$F$2:$F$15</c:f>
+              <c:f>utilizatio!$B$6:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.27</c:v>
+                  <c:v>0.28789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.82</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>34.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>49.09</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>66.819999999999993</c:v>
+                  <c:v>6.4500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.09</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>90.91</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000004-F659-4578-8A24-D6C45FD1CFD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -713,90 +670,87 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$G$1</c:f>
+              <c:f>utilizatio!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I/O</c:v>
+                  <c:v>8x8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$G$2:$G$15</c:f>
+              <c:f>utilizatio!$B$7:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0.35389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>6.8199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79090000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000005-F659-4578-8A24-D6C45FD1CFD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -805,92 +759,89 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$H$1</c:f>
+              <c:f>utilizatio!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BUFG</c:v>
+                  <c:v>10x10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6x6</c:v>
+                  <c:v>BRAM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7x7</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8x8</c:v>
+                  <c:v>I/O</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10x10</c:v>
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$H$2:$H$15</c:f>
+              <c:f>utilizatio!$B$8:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.13</c:v>
+                  <c:v>0.76449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.13</c:v>
+                  <c:v>7.5300000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3.13</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000006-F659-4578-8A24-D6C45FD1CFD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -902,86 +853,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="522638264"/>
-        <c:axId val="324305832"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494121824"/>
+        <c:axId val="494122808"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="522638264"/>
+        <c:axId val="494121824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mxu Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1019,7 +902,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324305832"/>
+        <c:crossAx val="494122808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324305832"/>
+        <c:axId val="494122808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,62 +930,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Utilization</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1133,7 +961,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522638264"/>
+        <c:crossAx val="494121824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,7 +1024,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr anchor="t" anchorCtr="0"/>
+    <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1210,7 +1038,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1960,28 +1787,28 @@
             <c:numRef>
               <c:f>power!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.3206493109464645E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4139940030872822E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>1.5564869157969952E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>1.7730282619595528E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>1.8882926553487778E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>2.2760385647416115E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03</c:v>
+                  <c:v>3.2410513609647751E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,28 +1877,28 @@
             <c:numRef>
               <c:f>power!$C$2:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.8857768997550011E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>5.1530762575566769E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>5.6834048591554165E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>6.4964648336172104E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>7.1524432860314846E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>6.8796523846685886E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>1.02643221616745E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,28 +1967,28 @@
             <c:numRef>
               <c:f>power!$D$2:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.9536897093057632E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.0528378449380398E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.2962804436683655E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.8769251443445683E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>5.2739833481609821E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>5.028995219618082E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>6.2343073077499866E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,28 +2057,28 @@
             <c:numRef>
               <c:f>power!$E$2:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5854846462607384E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.8060418553650379E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.3684303052723408E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.4201184753328562E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.0679918602108955E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.9195903334766626E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.3163207117468119E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,28 +2147,28 @@
             <c:numRef>
               <c:f>power!$F$2:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.3262140166480094E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.1384503128938377E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.4634054433554411E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.3154009664431214E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.2678317725658417E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.4475178904831409E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3280489258468151E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,28 +2237,28 @@
             <c:numRef>
               <c:f>power!$G$2:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.4851698698475957E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.6803267691284418E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0609653545543551E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.4704264467582107E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.3536218320950866E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.4777309782803059E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.0210823966190219E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2502,28 +2329,28 @@
             <c:numRef>
               <c:f>power!$H$2:$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.8787886518985033E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,28 +2421,28 @@
             <c:numRef>
               <c:f>power!$I$2:$I$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2575732469558716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,28 +2513,28 @@
             <c:numRef>
               <c:f>power!$J$2:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.1272355318069458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12724950909614563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12727704644203186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13</c:v>
+                  <c:v>0.1273120790719986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12733709812164307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12735162675380707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12748041749000549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,28 +2605,28 @@
             <c:numRef>
               <c:f>power!$K$2:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.41</c:v>
+                  <c:v>1.410913348197937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.41</c:v>
+                  <c:v>1.4126484394073486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4160624742507935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.42</c:v>
+                  <c:v>1.420403003692627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4235010147094727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.43</c:v>
+                  <c:v>1.4253007173538208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.44</c:v>
+                  <c:v>1.4412201642990112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,7 +2772,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3224,7 +3051,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3332,11 +3159,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3347,11 +3169,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3383,9 +3200,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4753,23 +4567,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15F657A-6E36-4A78-B524-26DE3B789BE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E355FA34-60D4-47F0-92FD-F7C2BE7F0DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4791,49 +4605,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02225</cdr:x>
-      <cdr:y>0.09181</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.09179</cdr:x>
-      <cdr:y>0.15136</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0869A4B4-3EB4-4E6B-AB79-B81404B2F604}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="121920" y="281940"/>
-          <a:ext cx="381000" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4874,7 +4645,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5238,16 +5009,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -5274,182 +5042,182 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>18.27</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="D2" s="2">
-        <v>12.72</v>
-      </c>
-      <c r="E2" s="2">
-        <v>57.86</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12.27</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3.13</v>
+      <c r="B2" s="4">
+        <v>0.1827</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.1227</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="D3" s="2">
-        <v>14.27</v>
-      </c>
-      <c r="E3" s="2">
-        <v>57.86</v>
-      </c>
-      <c r="F3" s="2">
-        <v>21.82</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.13</v>
+      <c r="B3" s="4">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>22.93</v>
-      </c>
-      <c r="C4">
-        <v>5.71</v>
-      </c>
-      <c r="D4">
-        <v>15.96</v>
-      </c>
-      <c r="E4">
-        <v>57.86</v>
-      </c>
-      <c r="F4">
-        <v>34.090000000000003</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>3.13</v>
+      <c r="B4" s="5">
+        <v>0.2293</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>26.15</v>
-      </c>
-      <c r="C5">
-        <v>6.08</v>
-      </c>
-      <c r="D5">
-        <v>18.2</v>
-      </c>
-      <c r="E5">
-        <v>57.86</v>
-      </c>
-      <c r="F5">
-        <v>49.09</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3.13</v>
+      <c r="B5" s="5">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.08E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.182</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.4909</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>28.79</v>
-      </c>
-      <c r="C6">
-        <v>6.45</v>
-      </c>
-      <c r="D6">
-        <v>20.58</v>
-      </c>
-      <c r="E6">
-        <v>57.86</v>
-      </c>
-      <c r="F6">
-        <v>66.819999999999993</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3.13</v>
+      <c r="B6" s="5">
+        <v>0.28789999999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>39.35</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.82</v>
-      </c>
-      <c r="D7" s="2">
-        <v>24.24</v>
-      </c>
-      <c r="E7" s="2">
-        <v>57.86</v>
-      </c>
-      <c r="F7" s="2">
-        <v>79.09</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.13</v>
+      <c r="B7" s="4">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.2424</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>76.45</v>
-      </c>
-      <c r="C8">
-        <v>7.53</v>
-      </c>
-      <c r="D8">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>90.91</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
+      <c r="B8" s="5">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5482,7 +5250,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5498,10 +5267,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5610,23 +5379,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -5638,282 +5410,665 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="7">
+        <v>1.3206493109464645E-2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4.8857768997550011E-3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3.9536897093057632E-3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.5854846462607384E-3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2.3262140166480094E-4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>6.4851698698475957E-4</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.1272355318069458</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.410913348197937</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>2.6104569435119629E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="O2" s="6">
+        <f>B2/L2</f>
+        <v>0.5059073332846229</v>
+      </c>
+      <c r="P2" s="6">
+        <f>C2/L2</f>
+        <v>0.18716175004909102</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>D2/L2</f>
+        <v>0.15145584833844031</v>
+      </c>
+      <c r="R2" s="6">
+        <f>E2/L2</f>
+        <v>9.9043374482261012E-2</v>
+      </c>
+      <c r="S2" s="6">
+        <f>F2/L2</f>
+        <v>8.9111372720764009E-3</v>
+      </c>
+      <c r="T2" s="6">
+        <f>G2/L2</f>
+        <v>2.4843044762587849E-2</v>
+      </c>
+      <c r="U2" s="6">
+        <f>H2/L2</f>
+        <v>2.2520151755460519E-2</v>
+      </c>
+      <c r="W2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.41</v>
+      <c r="X2" s="6">
+        <f>I2/K2</f>
+        <v>0.8913185551487508</v>
+      </c>
+      <c r="Y2" s="6">
+        <f>J2/K2</f>
+        <v>9.0179550692787075E-2</v>
+      </c>
+      <c r="Z2" s="6">
+        <f>L2/K2</f>
+        <v>1.8501894158462109E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.41</v>
+      <c r="B3" s="7">
+        <v>1.4139940030872822E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5.1530762575566769E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4.0528378449380398E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.8060418553650379E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4.1384503128938377E-4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>6.6803267691284418E-4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.12724950909614563</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.4126484394073486</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="0">K3-J3-I3</f>
+        <v>2.7825683355331421E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.50816146544568508</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.18519136409885667</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.14565097263501753</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>0.10084359185476745</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>1.4872771532854044E-2</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.4007772545318232E-2</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.1127203155541275E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.89022378949674408</v>
+      </c>
+      <c r="Y3" s="6">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>9.0078681677892125E-2</v>
+      </c>
+      <c r="Z3" s="6">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>1.969752882536379E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.02</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.42</v>
+      <c r="B4" s="7">
+        <v>1.5564869157969952E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5.6834048591554165E-3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4.2962804436683655E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3.3684303052723408E-3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>6.4634054433554411E-4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.0609653545543551E-3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.12727704644203186</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.4160624742507935</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>3.1212180852890015E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.49867932110641866</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18208932230473013</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="3"/>
+        <v>0.13764755702005238</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="4"/>
+        <v>0.1079203763796098</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="5"/>
+        <v>2.0707958453204264E-2</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" si="6"/>
+        <v>3.3992028931106158E-2</v>
+      </c>
+      <c r="U4" s="6">
+        <f t="shared" si="7"/>
+        <v>1.8834917943115054E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="6">
+        <f t="shared" si="8"/>
+        <v>0.88807751764004983</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" si="9"/>
+        <v>8.9880954234996771E-2</v>
+      </c>
+      <c r="Z4" s="6">
+        <f t="shared" si="10"/>
+        <v>2.2041528124953434E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.02</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.42</v>
+      <c r="B5" s="7">
+        <v>1.7730282619595528E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6.4964648336172104E-3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4.8769251443445683E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3.4201184753328562E-3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>9.3154009664431214E-4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.4704264467582107E-3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.1273120790719986</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.420403003692627</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>3.5517677664756775E-2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.49919600000167819</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18290792812908135</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.13730979796530471</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="4"/>
+        <v>9.6293415003496877E-2</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="5"/>
+        <v>2.622750579125431E-2</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="6"/>
+        <v>4.1399847721949309E-2</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="7"/>
+        <v>1.6551725896571962E-2</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="8"/>
+        <v>0.88536369163297579</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" si="9"/>
+        <v>8.9630955961811476E-2</v>
+      </c>
+      <c r="Z5" s="6">
+        <f t="shared" si="10"/>
+        <v>2.5005352405212702E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.02</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.42</v>
+      <c r="B6" s="7">
+        <v>1.8882926553487778E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7.1524432860314846E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5.2739833481609821E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.0679918602108955E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.2678317725658417E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.3536218320950866E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.12733709812164307</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1.4235010147094727</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>3.8590669631958008E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.48931326493102106</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1853412587613755</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.13666472747063838</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="4"/>
+        <v>0.10541387073631078</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2853323994044274E-2</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="6"/>
+        <v>3.5076401757333453E-2</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="7"/>
+        <v>1.5233704695888757E-2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="8"/>
+        <v>0.88343684617080109</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="9"/>
+        <v>8.9453464947217995E-2</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="10"/>
+        <v>2.710968888198096E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.02</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.43</v>
+      <c r="B7" s="7">
+        <v>2.2760385647416115E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.8796523846685886E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5.028995219618082E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.9195903334766626E-3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.4475178904831409E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7.4777309782803059E-4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.12735162675380707</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.4253007173538208</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>4.0375843644142151E-2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.56371294301656683</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.17039030677113071</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.1245545545485513</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="4"/>
+        <v>7.2310323945398117E-2</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="5"/>
+        <v>3.5851087180766593E-2</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="6"/>
+        <v>1.85203089356752E-2</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="7"/>
+        <v>1.4560163011606609E-2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="8"/>
+        <v>0.88232134569513998</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" si="9"/>
+        <v>8.9350706979398037E-2</v>
+      </c>
+      <c r="Z7" s="6">
+        <f t="shared" si="10"/>
+        <v>2.8327947325461938E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.03</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.44</v>
+      <c r="B8" s="7">
+        <v>3.2410513609647751E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.02643221616745E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6.2343073077499866E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.3163207117468119E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.3280489258468151E-3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.0210823966190219E-3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.12748041749000549</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.4412201642990112</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>5.6166499853134155E-2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.57704349913909059</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1827481183359112</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.11099689893533761</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="4"/>
+        <v>5.9044461029589282E-2</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="5"/>
+        <v>4.1449065402584584E-2</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="6"/>
+        <v>1.8179562537971542E-2</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="7"/>
+        <v>1.0466717112995355E-2</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="8"/>
+        <v>0.87257539001165529</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="9"/>
+        <v>8.8453118161866781E-2</v>
+      </c>
+      <c r="Z8" s="6">
+        <f t="shared" si="10"/>
+        <v>3.8971491826477973E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
